--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>SlNo</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>REST API,EMAIL services</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>JAVA &amp; JBPM session</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>JAVA &amp; JBPM practice</t>
   </si>
 </sst>
 </file>
@@ -303,6 +315,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,15 +331,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -593,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,7 +616,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,13 +629,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -656,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -697,19 +709,35 @@
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="10">
+        <v>44379</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="10">
+        <v>44379</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2">
@@ -1819,13 +1847,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>SlNo</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>JAVA &amp; JBPM practice</t>
+  </si>
+  <si>
+    <t>Java session</t>
+  </si>
+  <si>
+    <t>java spring mvc,rest and soap,jbpm apis</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -743,19 +749,35 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="10">
+        <v>44380</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="10">
+        <v>44380</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>SlNo</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>java spring mvc,rest and soap,jbpm apis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java session on spring boot rest </t>
+  </si>
+  <si>
+    <t>exploring</t>
+  </si>
+  <si>
+    <t>JSON &amp; GET POST PUT DELETE &amp; practice concept taught on session</t>
+  </si>
+  <si>
+    <t>JBPM learning</t>
+  </si>
+  <si>
+    <t>exploring APIs in jbpm using kie server docs</t>
   </si>
 </sst>
 </file>
@@ -611,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -622,7 +637,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,28 +798,52 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="10">
+        <v>44382</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="10">
+        <v>44382</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="10">
+        <v>44382</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>SlNo</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>exploring APIs in jbpm using kie server docs</t>
+  </si>
+  <si>
+    <t>JAVA  &amp; JBPM session</t>
+  </si>
+  <si>
+    <t>javaa jbpm practice &amp; exploring about drools</t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -849,19 +855,35 @@
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="10">
+        <v>44383</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="10">
+        <v>44383</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>SlNo</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>javaa jbpm practice &amp; exploring about drools</t>
+  </si>
+  <si>
+    <t>java and jbpm session</t>
+  </si>
+  <si>
+    <t>revision and exploring things taught in session</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -882,26 +888,42 @@
         <v>24</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="10">
+        <v>44384</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="10">
+        <v>44384</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>SlNo</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>revision and exploring things taught in session</t>
+  </si>
+  <si>
+    <t>java session &amp; meeting</t>
+  </si>
+  <si>
+    <t>java &amp; internal java session</t>
+  </si>
+  <si>
+    <t>spring boot pratice &amp;  jbpm api practice</t>
+  </si>
+  <si>
+    <t>spring boot basic &amp; rest concept,jbpm practice</t>
   </si>
 </sst>
 </file>
@@ -638,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,7 +661,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,37 +941,69 @@
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="10">
+        <v>44385</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="10">
+        <v>44385</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="10">
+        <v>44386</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="10">
+        <v>44386</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>SlNo</t>
   </si>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>spring boot basic &amp; rest concept,jbpm practice</t>
+  </si>
+  <si>
+    <t>jbpm</t>
+  </si>
+  <si>
+    <t>working on jbpm project given</t>
+  </si>
+  <si>
+    <t>Discussion  with teaam member about JBPM</t>
+  </si>
+  <si>
+    <t>JBPM practice</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>Searching interview jbpm questions</t>
+  </si>
+  <si>
+    <t>JBPM session &amp; team discussion</t>
+  </si>
+  <si>
+    <t>JBPM interview question preparation</t>
   </si>
 </sst>
 </file>
@@ -660,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1009,55 +1033,103 @@
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="10">
+        <v>44387</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="10">
+        <v>44389</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="10">
+        <v>44389</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="10">
+        <v>44389</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="10">
+        <v>44390</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="10">
+        <v>44390</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>SlNo</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>JBPM interview question preparation</t>
+  </si>
+  <si>
+    <t>Interview question discussion with team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM </t>
+  </si>
+  <si>
+    <t>java and jbpm</t>
+  </si>
+  <si>
+    <t>revision</t>
   </si>
 </sst>
 </file>
@@ -674,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,7 +697,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1128,35 +1140,59 @@
         <v>38</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="10">
+        <v>44391</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="10">
+        <v>44391</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="10">
+        <v>44392</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>SlNo</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>revision</t>
+  </si>
+  <si>
+    <t>interview discussion</t>
+  </si>
+  <si>
+    <t>interview question discussion with team</t>
+  </si>
+  <si>
+    <t>java revision</t>
+  </si>
+  <si>
+    <t>java &amp; jbpm</t>
   </si>
 </sst>
 </file>
@@ -686,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1191,44 +1203,76 @@
         <v>42</v>
       </c>
       <c r="F30" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="10">
+        <v>44393</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="10">
+        <v>44393</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="10">
+        <v>44393</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="10">
+        <v>44394</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>SlNo</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>java &amp; jbpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM VMS Front end development team </t>
+  </si>
+  <si>
+    <t>JPBM pratice</t>
+  </si>
+  <si>
+    <t>learnt jbpm basic</t>
+  </si>
+  <si>
+    <t>jbpm que &amp; java</t>
   </si>
 </sst>
 </file>
@@ -698,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -708,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1271,44 +1283,76 @@
         <v>46</v>
       </c>
       <c r="F34" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="C35" s="10">
+        <v>44396</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2">
         <v>33</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="C36" s="10">
+        <v>44396</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="C37" s="10">
+        <v>44397</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2">
         <v>35</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="C38" s="10">
+        <v>44397</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>SlNo</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>jbpm que &amp; java</t>
+  </si>
+  <si>
+    <t>VMS database session with team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vms practice </t>
+  </si>
+  <si>
+    <t>Interview question &amp; vms practise</t>
   </si>
 </sst>
 </file>
@@ -710,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -720,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1358,37 +1367,69 @@
       <c r="B39" s="2">
         <v>36</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="C39" s="10">
+        <v>44398</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2">
         <v>37</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="C40" s="10">
+        <v>44398</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2">
         <v>38</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="C41" s="10">
+        <v>44399</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="C42" s="10">
+        <v>44399</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>SlNo</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Interview question &amp; vms practise</t>
+  </si>
+  <si>
+    <t>java discussion with team</t>
+  </si>
+  <si>
+    <t>practice  and preparation for interview</t>
   </si>
 </sst>
 </file>
@@ -719,7 +725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1435,19 +1441,35 @@
       <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="C43" s="10">
+        <v>44400</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="2">
         <v>41</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="C44" s="10">
+        <v>44400</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>SlNo</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>practice  and preparation for interview</t>
+  </si>
+  <si>
+    <t>java session &amp; vms project</t>
+  </si>
+  <si>
+    <t>vms team session and practice</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1475,19 +1481,35 @@
       <c r="B45" s="2">
         <v>42</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="C45" s="10">
+        <v>44403</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="C46" s="10">
+        <v>44404</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>SlNo</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>vms team session and practice</t>
+  </si>
+  <si>
+    <t>project review vms bpm flow,task review,project connection</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -742,7 +745,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1515,10 +1518,16 @@
       <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="10">
+        <v>44405</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>SlNo</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>project review vms bpm flow,task review,project connection</t>
+  </si>
+  <si>
+    <t>session/practice</t>
+  </si>
+  <si>
+    <t>core java revsion with team/jbpm discussion/core java learning</t>
   </si>
 </sst>
 </file>
@@ -734,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,7 +751,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1533,10 +1539,18 @@
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="C48" s="10">
+        <v>44406</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>SlNo</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>core java revsion with team/jbpm discussion/core java learning</t>
+  </si>
+  <si>
+    <t>session/practice/cloud setup</t>
+  </si>
+  <si>
+    <t>jbpm session with team/cloud setup/jbpm practice</t>
+  </si>
+  <si>
+    <t>java /jbpm revision with team/practice</t>
   </si>
 </sst>
 </file>
@@ -740,7 +749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1556,19 +1565,35 @@
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="C49" s="10">
+        <v>44407</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="C50" s="10">
+        <v>44408</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2">
